--- a/Тест-кейс VK.xlsx
+++ b/Тест-кейс VK.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="Workbook________"/>
   <bookViews>
-    <workbookView xWindow="-210" yWindow="-15" windowWidth="24210" windowHeight="13710" tabRatio="682" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-216" yWindow="-12" windowWidth="24216" windowHeight="13716" tabRatio="682" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="110">
   <si>
     <t>passed</t>
   </si>
@@ -563,7 +563,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -753,6 +753,22 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -887,7 +903,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -980,9 +996,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1004,6 +1017,27 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1013,27 +1047,10 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1372,7 +1389,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1387,9 +1404,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="5" width="31.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
@@ -1428,35 +1445,35 @@
   <dimension ref="A1:DT61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="39.28515625" customWidth="1"/>
-    <col min="5" max="5" width="49.28515625" customWidth="1"/>
-    <col min="6" max="6" width="41.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" customWidth="1"/>
-    <col min="10" max="10" width="1.140625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="2.140625" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1"/>
-    <col min="13" max="13" width="2.140625" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" customWidth="1"/>
-    <col min="15" max="15" width="2.140625" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" customWidth="1"/>
-    <col min="17" max="17" width="2.42578125" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" customWidth="1"/>
-    <col min="19" max="19" width="2.42578125" customWidth="1"/>
-    <col min="20" max="20" width="13.28515625" customWidth="1"/>
-    <col min="21" max="21" width="2.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" customWidth="1"/>
+    <col min="5" max="5" width="49.33203125" customWidth="1"/>
+    <col min="6" max="6" width="41.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="8" max="8" width="3.6640625" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" customWidth="1"/>
+    <col min="10" max="10" width="1.109375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="2.109375" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" customWidth="1"/>
+    <col min="13" max="13" width="2.109375" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" customWidth="1"/>
+    <col min="15" max="15" width="2.109375" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" customWidth="1"/>
+    <col min="17" max="17" width="2.44140625" customWidth="1"/>
+    <col min="18" max="18" width="13.44140625" customWidth="1"/>
+    <col min="19" max="19" width="2.44140625" customWidth="1"/>
+    <col min="20" max="20" width="13.33203125" customWidth="1"/>
+    <col min="21" max="21" width="2.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:124">
@@ -1475,7 +1492,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="16">
         <f>COUNTIF(L$8:L$42,"failed")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="16">
@@ -1520,7 +1537,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="17">
         <f>COUNTIF(L$8:L$42,"passed")</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="17">
@@ -1647,43 +1664,43 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="47" t="s">
+      <c r="F6" s="43"/>
+      <c r="G6" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="45"/>
+      <c r="J6" s="51"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="44" t="s">
+      <c r="L6" s="50" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="44" t="s">
+      <c r="N6" s="50" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="44"/>
+      <c r="P6" s="50"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="44"/>
+      <c r="R6" s="50"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="44"/>
+      <c r="T6" s="50"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1693,29 +1710,29 @@
     </row>
     <row r="7" spans="1:124" ht="91.5" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="50"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="46"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="44"/>
+      <c r="L7" s="50"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="44"/>
+      <c r="N7" s="50"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="44"/>
+      <c r="P7" s="50"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="44"/>
+      <c r="R7" s="50"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="44"/>
+      <c r="T7" s="50"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1728,7 +1745,7 @@
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="40" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1745,7 +1762,9 @@
       <c r="I8" s="21"/>
       <c r="J8" s="20"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="6"/>
       <c r="O8" s="11"/>
@@ -1781,7 +1800,9 @@
       <c r="I9" s="28"/>
       <c r="J9" s="20"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="11"/>
       <c r="N9" s="6"/>
       <c r="O9" s="11"/>
@@ -1817,7 +1838,9 @@
       <c r="I10" s="21"/>
       <c r="J10" s="20"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="6"/>
+      <c r="L10" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M10" s="11"/>
       <c r="N10" s="6"/>
       <c r="O10" s="11"/>
@@ -1853,119 +1876,121 @@
       <c r="I11" s="32"/>
       <c r="J11" s="31"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="36"/>
-      <c r="AD11" s="35"/>
-      <c r="AE11" s="36"/>
-      <c r="AF11" s="35"/>
-      <c r="AG11" s="36"/>
-      <c r="AH11" s="35"/>
-      <c r="AI11" s="36"/>
-      <c r="AJ11" s="35"/>
-      <c r="AK11" s="36"/>
-      <c r="AL11" s="35"/>
-      <c r="AM11" s="36"/>
-      <c r="AN11" s="35"/>
-      <c r="AO11" s="36"/>
-      <c r="AP11" s="35"/>
-      <c r="AQ11" s="36"/>
-      <c r="AR11" s="35"/>
-      <c r="AS11" s="36"/>
-      <c r="AT11" s="35"/>
-      <c r="AU11" s="36"/>
-      <c r="AV11" s="35"/>
-      <c r="AW11" s="36"/>
-      <c r="AX11" s="35"/>
-      <c r="AY11" s="36"/>
-      <c r="AZ11" s="35"/>
-      <c r="BA11" s="36"/>
-      <c r="BB11" s="35"/>
-      <c r="BC11" s="36"/>
-      <c r="BD11" s="35"/>
-      <c r="BE11" s="36"/>
-      <c r="BF11" s="35"/>
-      <c r="BG11" s="36"/>
-      <c r="BH11" s="35"/>
-      <c r="BI11" s="36"/>
-      <c r="BJ11" s="35"/>
-      <c r="BK11" s="36"/>
-      <c r="BL11" s="35"/>
-      <c r="BM11" s="36"/>
-      <c r="BN11" s="35"/>
-      <c r="BO11" s="36"/>
-      <c r="BP11" s="35"/>
-      <c r="BQ11" s="36"/>
-      <c r="BR11" s="35"/>
-      <c r="BS11" s="36"/>
-      <c r="BT11" s="35"/>
-      <c r="BU11" s="36"/>
-      <c r="BV11" s="35"/>
-      <c r="BW11" s="36"/>
-      <c r="BX11" s="35"/>
-      <c r="BY11" s="36"/>
-      <c r="BZ11" s="37"/>
-      <c r="CA11" s="36"/>
-      <c r="CB11" s="35"/>
-      <c r="CC11" s="36"/>
-      <c r="CD11" s="38"/>
-      <c r="CE11" s="36"/>
-      <c r="CF11" s="35"/>
-      <c r="CG11" s="36"/>
-      <c r="CH11" s="37"/>
-      <c r="CI11" s="36"/>
-      <c r="CJ11" s="35"/>
-      <c r="CK11" s="36"/>
-      <c r="CL11" s="35"/>
-      <c r="CM11" s="36"/>
-      <c r="CN11" s="35"/>
-      <c r="CO11" s="36"/>
-      <c r="CP11" s="35"/>
-      <c r="CQ11" s="36"/>
-      <c r="CR11" s="35"/>
-      <c r="CS11" s="36"/>
-      <c r="CT11" s="35"/>
-      <c r="CU11" s="36"/>
-      <c r="CV11" s="35"/>
-      <c r="CW11" s="36"/>
-      <c r="CX11" s="35"/>
-      <c r="CY11" s="34"/>
-      <c r="CZ11" s="35"/>
-      <c r="DA11" s="34"/>
-      <c r="DB11" s="35"/>
-      <c r="DC11" s="34"/>
-      <c r="DD11" s="35"/>
-      <c r="DE11" s="34"/>
-      <c r="DF11" s="35"/>
-      <c r="DG11" s="34"/>
-      <c r="DH11" s="35"/>
-      <c r="DI11" s="34"/>
-      <c r="DJ11" s="35"/>
-      <c r="DK11" s="35"/>
-      <c r="DL11" s="35"/>
-      <c r="DM11" s="35"/>
-      <c r="DN11" s="39"/>
-      <c r="DO11" s="35"/>
-      <c r="DP11" s="40"/>
-      <c r="DQ11" s="40"/>
-      <c r="DR11" s="40"/>
-      <c r="DS11" s="40"/>
-      <c r="DT11" s="40"/>
+      <c r="L11" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="33"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="34"/>
+      <c r="AI11" s="35"/>
+      <c r="AJ11" s="34"/>
+      <c r="AK11" s="35"/>
+      <c r="AL11" s="34"/>
+      <c r="AM11" s="35"/>
+      <c r="AN11" s="34"/>
+      <c r="AO11" s="35"/>
+      <c r="AP11" s="34"/>
+      <c r="AQ11" s="35"/>
+      <c r="AR11" s="34"/>
+      <c r="AS11" s="35"/>
+      <c r="AT11" s="34"/>
+      <c r="AU11" s="35"/>
+      <c r="AV11" s="34"/>
+      <c r="AW11" s="35"/>
+      <c r="AX11" s="34"/>
+      <c r="AY11" s="35"/>
+      <c r="AZ11" s="34"/>
+      <c r="BA11" s="35"/>
+      <c r="BB11" s="34"/>
+      <c r="BC11" s="35"/>
+      <c r="BD11" s="34"/>
+      <c r="BE11" s="35"/>
+      <c r="BF11" s="34"/>
+      <c r="BG11" s="35"/>
+      <c r="BH11" s="34"/>
+      <c r="BI11" s="35"/>
+      <c r="BJ11" s="34"/>
+      <c r="BK11" s="35"/>
+      <c r="BL11" s="34"/>
+      <c r="BM11" s="35"/>
+      <c r="BN11" s="34"/>
+      <c r="BO11" s="35"/>
+      <c r="BP11" s="34"/>
+      <c r="BQ11" s="35"/>
+      <c r="BR11" s="34"/>
+      <c r="BS11" s="35"/>
+      <c r="BT11" s="34"/>
+      <c r="BU11" s="35"/>
+      <c r="BV11" s="34"/>
+      <c r="BW11" s="35"/>
+      <c r="BX11" s="34"/>
+      <c r="BY11" s="35"/>
+      <c r="BZ11" s="36"/>
+      <c r="CA11" s="35"/>
+      <c r="CB11" s="34"/>
+      <c r="CC11" s="35"/>
+      <c r="CD11" s="37"/>
+      <c r="CE11" s="35"/>
+      <c r="CF11" s="34"/>
+      <c r="CG11" s="35"/>
+      <c r="CH11" s="36"/>
+      <c r="CI11" s="35"/>
+      <c r="CJ11" s="34"/>
+      <c r="CK11" s="35"/>
+      <c r="CL11" s="34"/>
+      <c r="CM11" s="35"/>
+      <c r="CN11" s="34"/>
+      <c r="CO11" s="35"/>
+      <c r="CP11" s="34"/>
+      <c r="CQ11" s="35"/>
+      <c r="CR11" s="34"/>
+      <c r="CS11" s="35"/>
+      <c r="CT11" s="34"/>
+      <c r="CU11" s="35"/>
+      <c r="CV11" s="34"/>
+      <c r="CW11" s="35"/>
+      <c r="CX11" s="34"/>
+      <c r="CY11" s="33"/>
+      <c r="CZ11" s="34"/>
+      <c r="DA11" s="33"/>
+      <c r="DB11" s="34"/>
+      <c r="DC11" s="33"/>
+      <c r="DD11" s="34"/>
+      <c r="DE11" s="33"/>
+      <c r="DF11" s="34"/>
+      <c r="DG11" s="33"/>
+      <c r="DH11" s="34"/>
+      <c r="DI11" s="33"/>
+      <c r="DJ11" s="34"/>
+      <c r="DK11" s="34"/>
+      <c r="DL11" s="34"/>
+      <c r="DM11" s="34"/>
+      <c r="DN11" s="38"/>
+      <c r="DO11" s="34"/>
+      <c r="DP11" s="39"/>
+      <c r="DQ11" s="39"/>
+      <c r="DR11" s="39"/>
+      <c r="DS11" s="39"/>
+      <c r="DT11" s="39"/>
     </row>
     <row r="12" spans="1:124" ht="63" customHeight="1">
       <c r="A12" s="12"/>
@@ -1987,7 +2012,9 @@
       <c r="I12" s="21"/>
       <c r="J12" s="20"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="6"/>
+      <c r="L12" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M12" s="11"/>
       <c r="N12" s="6"/>
       <c r="O12" s="11"/>
@@ -2008,7 +2035,7 @@
       <c r="B13" s="3">
         <v>6</v>
       </c>
-      <c r="C13" s="41"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="3" t="s">
         <v>26</v>
       </c>
@@ -2023,7 +2050,9 @@
       <c r="I13" s="21"/>
       <c r="J13" s="20"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="6"/>
+      <c r="L13" s="54" t="s">
+        <v>1</v>
+      </c>
       <c r="M13" s="11"/>
       <c r="N13" s="6"/>
       <c r="O13" s="11"/>
@@ -2059,7 +2088,9 @@
       <c r="I14" s="21"/>
       <c r="J14" s="20"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="6"/>
+      <c r="L14" s="54" t="s">
+        <v>1</v>
+      </c>
       <c r="M14" s="11"/>
       <c r="N14" s="6"/>
       <c r="O14" s="11"/>
@@ -2095,7 +2126,9 @@
       <c r="I15" s="21"/>
       <c r="J15" s="20"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="6"/>
+      <c r="L15" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M15" s="11"/>
       <c r="N15" s="6"/>
       <c r="O15" s="11"/>
@@ -2131,7 +2164,9 @@
       <c r="I16" s="21"/>
       <c r="J16" s="20"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="6"/>
+      <c r="L16" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M16" s="11"/>
       <c r="N16" s="6"/>
       <c r="O16" s="11"/>
@@ -2166,7 +2201,9 @@
       <c r="I17" s="21"/>
       <c r="J17" s="20"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="6"/>
+      <c r="L17" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M17" s="11"/>
       <c r="N17" s="6"/>
       <c r="O17" s="11"/>
@@ -2182,12 +2219,12 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="56.45" customHeight="1">
+    <row r="18" spans="1:26" ht="56.4" customHeight="1">
       <c r="A18" s="12"/>
       <c r="B18" s="3">
         <v>11</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="41" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -2204,7 +2241,9 @@
       <c r="I18" s="21"/>
       <c r="J18" s="20"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="6"/>
+      <c r="L18" s="54" t="s">
+        <v>1</v>
+      </c>
       <c r="M18" s="11"/>
       <c r="N18" s="6"/>
       <c r="O18" s="11"/>
@@ -2220,7 +2259,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="48.95" customHeight="1">
+    <row r="19" spans="1:26" ht="48.9" customHeight="1">
       <c r="A19" s="12"/>
       <c r="B19" s="3">
         <v>12</v>
@@ -2240,7 +2279,9 @@
       <c r="I19" s="21"/>
       <c r="J19" s="20"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="6"/>
+      <c r="L19" s="54" t="s">
+        <v>1</v>
+      </c>
       <c r="M19" s="11"/>
       <c r="N19" s="6"/>
       <c r="O19" s="11"/>
@@ -2276,7 +2317,9 @@
       <c r="I20" s="21"/>
       <c r="J20" s="20"/>
       <c r="K20" s="10"/>
-      <c r="L20" s="6"/>
+      <c r="L20" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M20" s="11"/>
       <c r="N20" s="6"/>
       <c r="O20" s="11"/>
@@ -2312,7 +2355,9 @@
       <c r="I21" s="21"/>
       <c r="J21" s="20"/>
       <c r="K21" s="10"/>
-      <c r="L21" s="6"/>
+      <c r="L21" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M21" s="11"/>
       <c r="N21" s="6"/>
       <c r="O21" s="11"/>
@@ -2328,7 +2373,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="40.9" customHeight="1">
+    <row r="22" spans="1:26" ht="40.950000000000003" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="3">
         <v>15</v>
@@ -2348,7 +2393,9 @@
       <c r="I22" s="21"/>
       <c r="J22" s="20"/>
       <c r="K22" s="10"/>
-      <c r="L22" s="6"/>
+      <c r="L22" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M22" s="11"/>
       <c r="N22" s="6"/>
       <c r="O22" s="11"/>
@@ -2373,7 +2420,7 @@
       <c r="D23" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="42" t="s">
         <v>66</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -2384,7 +2431,9 @@
       <c r="I23" s="21"/>
       <c r="J23" s="20"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="6"/>
+      <c r="L23" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M23" s="11"/>
       <c r="N23" s="6"/>
       <c r="O23" s="11"/>
@@ -2400,7 +2449,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="65.45" customHeight="1">
+    <row r="24" spans="1:26" ht="65.400000000000006" customHeight="1">
       <c r="A24" s="12"/>
       <c r="B24" s="3">
         <v>17</v>
@@ -2420,7 +2469,9 @@
       <c r="I24" s="21"/>
       <c r="J24" s="20"/>
       <c r="K24" s="10"/>
-      <c r="L24" s="6"/>
+      <c r="L24" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M24" s="11"/>
       <c r="N24" s="6"/>
       <c r="O24" s="11"/>
@@ -2456,7 +2507,9 @@
       <c r="I25" s="21"/>
       <c r="J25" s="20"/>
       <c r="K25" s="10"/>
-      <c r="L25" s="6"/>
+      <c r="L25" s="54" t="s">
+        <v>1</v>
+      </c>
       <c r="M25" s="11"/>
       <c r="N25" s="6"/>
       <c r="O25" s="11"/>
@@ -2492,7 +2545,9 @@
       <c r="I26" s="21"/>
       <c r="J26" s="20"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="6"/>
+      <c r="L26" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M26" s="11"/>
       <c r="N26" s="6"/>
       <c r="O26" s="11"/>
@@ -2508,7 +2563,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="91.9" customHeight="1">
+    <row r="27" spans="1:26" ht="91.95" customHeight="1">
       <c r="A27" s="12"/>
       <c r="B27" s="3">
         <v>20</v>
@@ -2528,7 +2583,9 @@
       <c r="I27" s="21"/>
       <c r="J27" s="20"/>
       <c r="K27" s="10"/>
-      <c r="L27" s="6"/>
+      <c r="L27" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M27" s="11"/>
       <c r="N27" s="6"/>
       <c r="O27" s="11"/>
@@ -2549,7 +2606,7 @@
       <c r="B28" s="3">
         <v>21</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="41" t="s">
         <v>80</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -2566,7 +2623,9 @@
       <c r="I28" s="21"/>
       <c r="J28" s="20"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="6"/>
+      <c r="L28" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M28" s="11"/>
       <c r="N28" s="6"/>
       <c r="O28" s="11"/>
@@ -2602,7 +2661,9 @@
       <c r="I29" s="21"/>
       <c r="J29" s="20"/>
       <c r="K29" s="10"/>
-      <c r="L29" s="6"/>
+      <c r="L29" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M29" s="11"/>
       <c r="N29" s="6"/>
       <c r="O29" s="11"/>
@@ -2638,7 +2699,9 @@
       <c r="I30" s="28"/>
       <c r="J30" s="20"/>
       <c r="K30" s="10"/>
-      <c r="L30" s="6"/>
+      <c r="L30" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M30" s="11"/>
       <c r="N30" s="6"/>
       <c r="O30" s="11"/>
@@ -2674,7 +2737,9 @@
       <c r="I31" s="21"/>
       <c r="J31" s="20"/>
       <c r="K31" s="10"/>
-      <c r="L31" s="6"/>
+      <c r="L31" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M31" s="11"/>
       <c r="N31" s="6"/>
       <c r="O31" s="11"/>
@@ -2710,7 +2775,9 @@
       <c r="I32" s="21"/>
       <c r="J32" s="20"/>
       <c r="K32" s="10"/>
-      <c r="L32" s="6"/>
+      <c r="L32" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M32" s="11"/>
       <c r="N32" s="6"/>
       <c r="O32" s="11"/>
@@ -2744,7 +2811,9 @@
       <c r="I33" s="21"/>
       <c r="J33" s="20"/>
       <c r="K33" s="10"/>
-      <c r="L33" s="6"/>
+      <c r="L33" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M33" s="11"/>
       <c r="N33" s="6"/>
       <c r="O33" s="11"/>
@@ -2780,7 +2849,9 @@
       <c r="I34" s="21"/>
       <c r="J34" s="20"/>
       <c r="K34" s="10"/>
-      <c r="L34" s="6"/>
+      <c r="L34" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M34" s="11"/>
       <c r="N34" s="6"/>
       <c r="O34" s="11"/>
@@ -2816,7 +2887,9 @@
       <c r="I35" s="21"/>
       <c r="J35" s="20"/>
       <c r="K35" s="10"/>
-      <c r="L35" s="6"/>
+      <c r="L35" s="54" t="s">
+        <v>1</v>
+      </c>
       <c r="M35" s="11"/>
       <c r="N35" s="6"/>
       <c r="O35" s="11"/>
@@ -2852,7 +2925,9 @@
       <c r="I36" s="21"/>
       <c r="J36" s="20"/>
       <c r="K36" s="10"/>
-      <c r="L36" s="6"/>
+      <c r="L36" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M36" s="11"/>
       <c r="N36" s="6"/>
       <c r="O36" s="11"/>
@@ -2888,7 +2963,9 @@
       <c r="I37" s="21"/>
       <c r="J37" s="20"/>
       <c r="K37" s="10"/>
-      <c r="L37" s="6"/>
+      <c r="L37" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M37" s="11"/>
       <c r="N37" s="6"/>
       <c r="O37" s="11"/>
@@ -3513,12 +3590,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3526,6 +3597,12 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L12:L42 R12:R42 P12:P42 T12:T42 T8:T10 P8:P10 R8:R10 L8:L10 N8:N10 N12:N42">
